--- a/String_Pull_Training/431/Training_Log.xlsx
+++ b/String_Pull_Training/431/Training_Log.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\String_Pull_Training\431\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github_TimeCells\String_Pulling_System\String_Pull_Training\431\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DBA2B7-7177-4151-B28E-A603B9C9603E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,17 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -613,7 +603,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -674,28 +664,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -704,18 +687,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1034,11 +1010,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,9 +1025,9 @@
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="80.7109375" style="19" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="80.7109375" style="13" customWidth="1"/>
     <col min="11" max="11" width="26.140625" customWidth="1"/>
     <col min="12" max="12" width="173.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1078,249 +1054,240 @@
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
         <v>45001</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="3">
-        <v>431</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
-      <c r="H2" s="8" t="s">
+      <c r="C2">
+        <v>431</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="18"/>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
         <v>45001</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="3">
-        <v>431</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
-      <c r="H3" s="8" t="s">
+      <c r="C3">
+        <v>431</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="18"/>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>45001</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="3">
-        <v>431</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
-      <c r="H4" s="8" t="s">
+      <c r="C4">
+        <v>431</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="18"/>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>45001</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="3">
-        <v>431</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3">
-        <v>2</v>
-      </c>
-      <c r="H5" s="10">
+      <c r="C5">
+        <v>431</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>12</v>
+      </c>
+      <c r="H5" s="8">
         <v>0.10069444444444443</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>45001</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="3">
-        <v>431</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3">
-        <v>2</v>
-      </c>
-      <c r="H6" s="9" t="s">
+      <c r="C6">
+        <v>431</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>45001</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="3">
-        <v>431</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3">
-        <v>2</v>
-      </c>
-      <c r="H7" s="9" t="s">
+      <c r="C7">
+        <v>431</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>12</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>45001</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="3">
-        <v>431</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
-        <v>2</v>
-      </c>
-      <c r="G8" s="3">
-        <v>3</v>
-      </c>
-      <c r="H8" s="11"/>
-      <c r="J8" s="19" t="s">
+      <c r="C8">
+        <v>431</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="J8" s="13" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>45001</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="3">
-        <v>431</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
-        <v>2</v>
-      </c>
-      <c r="J9" s="19" t="s">
+      <c r="C9">
+        <v>431</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="J9" s="13" t="s">
         <v>38</v>
       </c>
       <c r="L9" s="2" t="s">
@@ -1328,28 +1295,28 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>45001</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="3">
-        <v>431</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3">
-        <v>2</v>
-      </c>
-      <c r="I10" s="14">
+      <c r="C10">
+        <v>431</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="I10" s="10">
         <v>0</v>
       </c>
-      <c r="J10" s="19" t="s">
+      <c r="J10" s="13" t="s">
         <v>39</v>
       </c>
       <c r="L10" s="1" t="s">
@@ -1357,31 +1324,31 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>45002</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="3">
-        <v>431</v>
-      </c>
-      <c r="D11" s="3">
-        <v>2</v>
-      </c>
-      <c r="E11" s="3">
-        <v>2</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>2</v>
-      </c>
-      <c r="H11" s="11">
+      <c r="C11">
+        <v>431</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>12</v>
+      </c>
+      <c r="H11" s="8">
         <v>0.10833333333333334</v>
       </c>
-      <c r="J11" s="19" t="s">
+      <c r="J11" s="13" t="s">
         <v>41</v>
       </c>
       <c r="L11" s="1" t="s">
@@ -1389,31 +1356,31 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>45002</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="3">
-        <v>431</v>
-      </c>
-      <c r="D12" s="3">
-        <v>2</v>
-      </c>
-      <c r="E12" s="3">
-        <v>2</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3">
-        <v>2</v>
-      </c>
-      <c r="H12" s="11">
+      <c r="C12">
+        <v>431</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>12</v>
+      </c>
+      <c r="H12" s="8">
         <v>0.19027777777777777</v>
       </c>
-      <c r="J12" s="19" t="s">
+      <c r="J12" s="13" t="s">
         <v>45</v>
       </c>
       <c r="L12" t="s">
@@ -1421,28 +1388,28 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>45002</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="3">
-        <v>431</v>
-      </c>
-      <c r="D13" s="3">
-        <v>2</v>
-      </c>
-      <c r="E13" s="3">
-        <v>2</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3">
-        <v>2</v>
-      </c>
-      <c r="H13" s="9" t="s">
+      <c r="C13">
+        <v>431</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>12</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L13" t="s">
@@ -1450,28 +1417,28 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>45002</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="3">
-        <v>431</v>
-      </c>
-      <c r="D14" s="3">
-        <v>2</v>
-      </c>
-      <c r="E14" s="3">
-        <v>2</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3">
-        <v>3</v>
-      </c>
-      <c r="H14" s="9" t="s">
+      <c r="C14">
+        <v>431</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>30</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>43</v>
       </c>
       <c r="L14" t="s">
@@ -1479,138 +1446,135 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>45002</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="3">
-        <v>431</v>
-      </c>
-      <c r="D15" s="3">
-        <v>2</v>
-      </c>
-      <c r="E15" s="3">
-        <v>2</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3">
-        <v>3</v>
-      </c>
-      <c r="H15" s="11" t="s">
+      <c r="C15">
+        <v>431</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>30</v>
+      </c>
+      <c r="H15" s="8" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>45002</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="3">
-        <v>431</v>
-      </c>
-      <c r="D16" s="3">
-        <v>2</v>
-      </c>
-      <c r="E16" s="3">
-        <v>2</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3">
-        <v>3</v>
-      </c>
-      <c r="H16" s="9" t="s">
+      <c r="C16">
+        <v>431</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>30</v>
+      </c>
+      <c r="H16" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J16" s="19" t="s">
+      <c r="J16" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>45002</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="3">
-        <v>431</v>
-      </c>
-      <c r="D17" s="3">
-        <v>2</v>
-      </c>
-      <c r="E17" s="3">
-        <v>2</v>
-      </c>
-      <c r="F17" s="3">
-        <v>2</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="I17" s="13"/>
+      <c r="C17">
+        <v>431</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
       <c r="L17" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>45002</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="3">
-        <v>431</v>
-      </c>
-      <c r="D18" s="3">
-        <v>2</v>
-      </c>
-      <c r="E18" s="3">
-        <v>2</v>
-      </c>
-      <c r="F18" s="3">
-        <v>2</v>
-      </c>
-      <c r="G18" s="3"/>
-      <c r="I18" s="13">
-        <v>2</v>
-      </c>
-      <c r="J18" s="19" t="s">
+      <c r="C18">
+        <v>431</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="I18" s="10">
+        <v>2</v>
+      </c>
+      <c r="J18" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="L18" s="5" t="s">
+      <c r="L18" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>45002</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="3">
-        <v>431</v>
-      </c>
-      <c r="D19" s="3">
-        <v>2</v>
-      </c>
-      <c r="E19" s="3">
+      <c r="C19">
+        <v>431</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
         <v>3</v>
       </c>
-      <c r="F19" s="3">
-        <v>1</v>
-      </c>
-      <c r="G19" s="3">
-        <v>1</v>
-      </c>
-      <c r="H19" s="9" t="s">
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19" s="7" t="s">
         <v>50</v>
       </c>
       <c r="L19" t="s">
@@ -1618,141 +1582,141 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>45002</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="3">
-        <v>431</v>
-      </c>
-      <c r="D20" s="3">
-        <v>2</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="C20">
+        <v>431</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
         <v>3</v>
       </c>
-      <c r="F20" s="3">
-        <v>1</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1</v>
-      </c>
-      <c r="H20" s="9" t="s">
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="L20" s="4" t="s">
+      <c r="L20" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>45002</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="3">
-        <v>431</v>
-      </c>
-      <c r="D21" s="3">
-        <v>2</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="C21">
+        <v>431</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
         <v>3</v>
       </c>
-      <c r="F21" s="3">
-        <v>1</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1</v>
-      </c>
-      <c r="H21" s="9" t="s">
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L21" s="4" t="s">
+      <c r="L21" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>45002</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="3">
-        <v>431</v>
-      </c>
-      <c r="D22" s="3">
-        <v>2</v>
-      </c>
-      <c r="E22" s="3">
+      <c r="C22">
+        <v>431</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
         <v>3</v>
       </c>
-      <c r="F22" s="3">
-        <v>1</v>
-      </c>
-      <c r="G22" s="3">
-        <v>2</v>
-      </c>
-      <c r="H22" s="9" t="s">
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>12</v>
+      </c>
+      <c r="H22" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="L22" s="4" t="s">
+      <c r="L22" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>45002</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="3">
-        <v>431</v>
-      </c>
-      <c r="D23" s="3">
-        <v>2</v>
-      </c>
-      <c r="E23" s="3">
+      <c r="C23">
+        <v>431</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
         <v>3</v>
       </c>
-      <c r="F23" s="3">
-        <v>1</v>
-      </c>
-      <c r="G23" s="3">
-        <v>2</v>
-      </c>
-      <c r="H23" s="9" t="s">
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>12</v>
+      </c>
+      <c r="H23" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>45002</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="3">
-        <v>431</v>
-      </c>
-      <c r="D24" s="3">
-        <v>2</v>
-      </c>
-      <c r="E24" s="3">
+      <c r="C24">
+        <v>431</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
         <v>3</v>
       </c>
-      <c r="F24" s="3">
-        <v>1</v>
-      </c>
-      <c r="G24" s="3">
-        <v>2</v>
-      </c>
-      <c r="H24" s="9" t="s">
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>12</v>
+      </c>
+      <c r="H24" s="7" t="s">
         <v>51</v>
       </c>
       <c r="L24" s="2" t="s">
@@ -1760,28 +1724,28 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>45002</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="3">
-        <v>431</v>
-      </c>
-      <c r="D25" s="3">
-        <v>2</v>
-      </c>
-      <c r="E25" s="3">
+      <c r="C25">
+        <v>431</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
         <v>3</v>
       </c>
-      <c r="F25" s="3">
-        <v>1</v>
-      </c>
-      <c r="G25" s="3">
-        <v>3</v>
-      </c>
-      <c r="H25" s="9" t="s">
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>30</v>
+      </c>
+      <c r="H25" s="7" t="s">
         <v>54</v>
       </c>
       <c r="L25" s="1" t="s">
@@ -1789,31 +1753,31 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
+      <c r="A26" s="5">
         <v>45002</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="3">
-        <v>431</v>
-      </c>
-      <c r="D26" s="3">
-        <v>2</v>
-      </c>
-      <c r="E26" s="3">
+      <c r="C26">
+        <v>431</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
         <v>3</v>
       </c>
-      <c r="F26" s="3">
-        <v>1</v>
-      </c>
-      <c r="G26" s="3">
-        <v>3</v>
-      </c>
-      <c r="H26" s="9" t="s">
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>30</v>
+      </c>
+      <c r="H26" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="19" t="s">
+      <c r="J26" s="13" t="s">
         <v>57</v>
       </c>
       <c r="L26" s="1" t="s">
@@ -1821,31 +1785,31 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
+      <c r="A27" s="5">
         <v>45002</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="3">
-        <v>431</v>
-      </c>
-      <c r="D27" s="3">
-        <v>2</v>
-      </c>
-      <c r="E27" s="3">
+      <c r="C27">
+        <v>431</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
         <v>3</v>
       </c>
-      <c r="F27" s="3">
-        <v>1</v>
-      </c>
-      <c r="G27" s="3">
-        <v>3</v>
-      </c>
-      <c r="H27" s="9" t="s">
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J27" s="19" t="s">
+      <c r="J27" s="13" t="s">
         <v>58</v>
       </c>
       <c r="L27" t="s">
@@ -1853,25 +1817,25 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
+      <c r="A28" s="5">
         <v>45002</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="3">
-        <v>431</v>
-      </c>
-      <c r="D28" s="3">
-        <v>2</v>
-      </c>
-      <c r="E28" s="3">
+      <c r="C28">
+        <v>431</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
         <v>3</v>
       </c>
-      <c r="F28" s="3">
-        <v>2</v>
-      </c>
-      <c r="J28" s="19" t="s">
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="J28" s="13" t="s">
         <v>55</v>
       </c>
       <c r="L28" t="s">
@@ -1879,28 +1843,28 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
+      <c r="A29" s="5">
         <v>45002</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="3">
-        <v>431</v>
-      </c>
-      <c r="D29" s="3">
-        <v>2</v>
-      </c>
-      <c r="E29" s="3">
+      <c r="C29">
+        <v>431</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
         <v>3</v>
       </c>
-      <c r="F29" s="3">
-        <v>2</v>
-      </c>
-      <c r="I29" s="14">
-        <v>2</v>
-      </c>
-      <c r="J29" s="19" t="s">
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="I29" s="10">
+        <v>2</v>
+      </c>
+      <c r="J29" s="13" t="s">
         <v>56</v>
       </c>
       <c r="L29" t="s">
@@ -1908,13 +1872,13 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="15">
+      <c r="A30" s="11">
         <v>45007</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30">
         <v>431</v>
       </c>
       <c r="D30">
@@ -1923,24 +1887,24 @@
       <c r="E30">
         <v>4</v>
       </c>
-      <c r="F30" s="3">
-        <v>2</v>
-      </c>
-      <c r="I30" s="14">
-        <v>1</v>
-      </c>
-      <c r="J30" s="19" t="s">
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="I30" s="10">
+        <v>1</v>
+      </c>
+      <c r="J30" s="13" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="16">
+      <c r="A31" s="5">
         <v>45008</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31">
         <v>431</v>
       </c>
       <c r="D31">
@@ -1949,24 +1913,24 @@
       <c r="E31">
         <v>5</v>
       </c>
-      <c r="F31" s="3">
-        <v>2</v>
-      </c>
-      <c r="I31" s="14">
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="I31" s="10">
         <v>7</v>
       </c>
-      <c r="J31" s="19" t="s">
+      <c r="J31" s="13" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="15">
+      <c r="A32" s="11">
         <v>45009</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32">
         <v>431</v>
       </c>
       <c r="D32">
@@ -1975,24 +1939,24 @@
       <c r="E32">
         <v>6</v>
       </c>
-      <c r="F32" s="3">
-        <v>2</v>
-      </c>
-      <c r="I32" s="14">
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="I32" s="10">
         <v>4</v>
       </c>
-      <c r="J32" s="19" t="s">
+      <c r="J32" s="13" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="16">
+      <c r="A33" s="5">
         <v>45009</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33">
         <v>431</v>
       </c>
       <c r="D33">
@@ -2001,24 +1965,24 @@
       <c r="E33">
         <v>7</v>
       </c>
-      <c r="F33" s="3">
-        <v>2</v>
-      </c>
-      <c r="I33" s="14">
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="I33" s="10">
         <v>22</v>
       </c>
-      <c r="J33" s="19" t="s">
+      <c r="J33" s="13" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="15">
+      <c r="A34" s="11">
         <v>45014</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34">
         <v>431</v>
       </c>
       <c r="D34">
@@ -2027,36 +1991,24 @@
       <c r="E34">
         <v>8</v>
       </c>
-      <c r="F34" s="3">
-        <v>2</v>
-      </c>
-      <c r="I34" s="14">
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="I34" s="10">
         <v>4</v>
       </c>
-      <c r="J34" s="19" t="s">
+      <c r="J34" s="13" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="F35" s="3"/>
+      <c r="A35" s="11"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="F36" s="3"/>
+      <c r="A36" s="11"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F38" s="3"/>
+      <c r="A37" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
